--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD168A96-96C2-438C-B62D-BD79F74EA479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD95A-C7C0-4819-B98E-070B42BB8A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -160,6 +163,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Arkusz1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:N30" totalsRowShown="0">
   <autoFilter ref="A3:N30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
@@ -181,7 +197,7 @@
     <tableColumn id="14" xr3:uid="{AF6A9FC9-C6EF-4E93-A8CD-D1AF9B89F86B}" name="Lista 1.9"/>
     <tableColumn id="15" xr3:uid="{B85D81D9-5EC1-4B7D-A6E1-1AB4B3193040}" name="Lista 1.10"/>
     <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -454,7 +470,7 @@
   <dimension ref="A3:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="D3" sqref="D3:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +533,7 @@
         <v>156327</v>
       </c>
       <c r="N4">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -562,7 +578,7 @@
         <v>0.8</v>
       </c>
       <c r="N5">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8.0500000000000007</v>
       </c>
     </row>
@@ -607,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>3.65</v>
       </c>
     </row>
@@ -652,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>5.35</v>
       </c>
     </row>
@@ -697,7 +713,7 @@
         <v>0.5</v>
       </c>
       <c r="N8">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.05</v>
       </c>
     </row>
@@ -742,7 +758,7 @@
         <v>0.8</v>
       </c>
       <c r="N9">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>5.95</v>
       </c>
     </row>
@@ -787,7 +803,7 @@
         <v>0.8</v>
       </c>
       <c r="N10">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>5.6</v>
       </c>
     </row>
@@ -832,7 +848,7 @@
         <v>1.5</v>
       </c>
       <c r="N11">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.65</v>
       </c>
     </row>
@@ -846,9 +862,39 @@
       <c r="C12">
         <v>160762</v>
       </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.9</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+      <c r="M12">
+        <v>0.8</v>
+      </c>
       <c r="N12">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>5.95</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -861,9 +907,39 @@
       <c r="C13">
         <v>160763</v>
       </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0.9</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8</v>
+      </c>
       <c r="N13">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>6.2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -876,9 +952,39 @@
       <c r="C14">
         <v>160764</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>0.9</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+      <c r="L14">
+        <v>0.75</v>
+      </c>
+      <c r="M14">
+        <v>0.8</v>
+      </c>
       <c r="N14">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>6.8500000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -891,9 +997,39 @@
       <c r="C15">
         <v>160766</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.9</v>
+      </c>
+      <c r="M15">
+        <v>0.8</v>
+      </c>
       <c r="N15">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>7.6000000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -907,7 +1043,7 @@
         <v>160767</v>
       </c>
       <c r="N16">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -922,7 +1058,7 @@
         <v>160769</v>
       </c>
       <c r="N17">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -937,7 +1073,7 @@
         <v>160773</v>
       </c>
       <c r="N18">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -952,7 +1088,7 @@
         <v>160775</v>
       </c>
       <c r="N19">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -967,7 +1103,7 @@
         <v>160777</v>
       </c>
       <c r="N20">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -982,7 +1118,7 @@
         <v>160778</v>
       </c>
       <c r="N21">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -997,7 +1133,7 @@
         <v>160780</v>
       </c>
       <c r="N22">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1012,7 +1148,7 @@
         <v>160781</v>
       </c>
       <c r="N23">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1027,7 +1163,7 @@
         <v>160798</v>
       </c>
       <c r="N24">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1042,7 +1178,7 @@
         <v>160799</v>
       </c>
       <c r="N25">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1193,7 @@
         <v>160800</v>
       </c>
       <c r="N26">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1072,7 +1208,7 @@
         <v>160802</v>
       </c>
       <c r="N27">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1087,7 +1223,7 @@
         <v>160823</v>
       </c>
       <c r="N28">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1102,7 +1238,7 @@
         <v>160825</v>
       </c>
       <c r="N29">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1117,7 +1253,7 @@
         <v>161620</v>
       </c>
       <c r="N30">
-        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD95A-C7C0-4819-B98E-070B42BB8A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1D5FF-5197-4ED7-8A7B-80AF2A51C365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="4116" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -88,12 +85,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,11 +141,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
@@ -161,19 +167,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Arkusz1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -197,7 +190,7 @@
     <tableColumn id="14" xr3:uid="{AF6A9FC9-C6EF-4E93-A8CD-D1AF9B89F86B}" name="Lista 1.9"/>
     <tableColumn id="15" xr3:uid="{B85D81D9-5EC1-4B7D-A6E1-1AB4B3193040}" name="Lista 1.10"/>
     <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="0">
-      <calculatedColumnFormula>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -470,15 +463,15 @@
   <dimension ref="A3:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:N15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -494,7 +487,7 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -522,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -533,11 +526,11 @@
         <v>156327</v>
       </c>
       <c r="N4">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -553,18 +546,6 @@
       <c r="E5">
         <v>0.9</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0.9</v>
-      </c>
       <c r="J5">
         <v>0.8</v>
       </c>
@@ -578,11 +559,11 @@
         <v>0.8</v>
       </c>
       <c r="N5">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>5.1499999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -598,18 +579,6 @@
       <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
         <v>0.5</v>
       </c>
@@ -623,11 +592,11 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -643,18 +612,6 @@
       <c r="E7">
         <v>0.95</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
         <v>0.5</v>
       </c>
@@ -668,11 +625,11 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -688,18 +645,6 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8">
-        <v>0.25</v>
-      </c>
       <c r="J8">
         <v>0.9</v>
       </c>
@@ -713,11 +658,11 @@
         <v>0.5</v>
       </c>
       <c r="N8">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -733,18 +678,6 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-      <c r="I9">
-        <v>0.25</v>
-      </c>
       <c r="J9">
         <v>0.75</v>
       </c>
@@ -758,11 +691,11 @@
         <v>0.8</v>
       </c>
       <c r="N9">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -778,18 +711,6 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.4</v>
-      </c>
-      <c r="I10">
-        <v>0.25</v>
-      </c>
       <c r="J10">
         <v>0.5</v>
       </c>
@@ -803,11 +724,11 @@
         <v>0.8</v>
       </c>
       <c r="N10">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -823,18 +744,6 @@
       <c r="E11">
         <v>0.9</v>
       </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.75</v>
-      </c>
-      <c r="I11">
-        <v>0.75</v>
-      </c>
       <c r="J11">
         <v>0.75</v>
       </c>
@@ -848,11 +757,11 @@
         <v>1.5</v>
       </c>
       <c r="N11">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -868,18 +777,6 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
       <c r="J12">
         <v>0.9</v>
       </c>
@@ -893,11 +790,11 @@
         <v>0.8</v>
       </c>
       <c r="N12">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -913,18 +810,6 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="I13">
-        <v>0.5</v>
-      </c>
       <c r="J13">
         <v>0.9</v>
       </c>
@@ -938,11 +823,11 @@
         <v>0.8</v>
       </c>
       <c r="N13">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -958,18 +843,6 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.5</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
       <c r="J14">
         <v>0.9</v>
       </c>
@@ -983,11 +856,11 @@
         <v>0.8</v>
       </c>
       <c r="N14">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.8500000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1003,18 +876,6 @@
       <c r="E15">
         <v>0.9</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.5</v>
-      </c>
-      <c r="H15">
-        <v>0.5</v>
-      </c>
-      <c r="I15">
-        <v>0.5</v>
-      </c>
       <c r="J15">
         <v>1</v>
       </c>
@@ -1028,11 +889,11 @@
         <v>0.8</v>
       </c>
       <c r="N15">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>7.6000000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1042,12 +903,30 @@
       <c r="C16">
         <v>160767</v>
       </c>
+      <c r="D16">
+        <v>0.75</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.75</v>
+      </c>
+      <c r="K16">
+        <v>0.25</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
       <c r="N16">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1057,12 +936,30 @@
       <c r="C17">
         <v>160769</v>
       </c>
+      <c r="D17">
+        <v>0.25</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.25</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1072,12 +969,30 @@
       <c r="C18">
         <v>160773</v>
       </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="N18">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1088,11 +1003,11 @@
         <v>160775</v>
       </c>
       <c r="N19">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1102,12 +1017,27 @@
       <c r="C20">
         <v>160777</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
       <c r="N20">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1117,12 +1047,21 @@
       <c r="C21">
         <v>160778</v>
       </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="N21">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1133,11 +1072,11 @@
         <v>160780</v>
       </c>
       <c r="N22">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1148,11 +1087,11 @@
         <v>160781</v>
       </c>
       <c r="N23">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1163,11 +1102,11 @@
         <v>160798</v>
       </c>
       <c r="N24">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1178,11 +1117,11 @@
         <v>160799</v>
       </c>
       <c r="N25">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1193,11 +1132,11 @@
         <v>160800</v>
       </c>
       <c r="N26">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1208,11 +1147,11 @@
         <v>160802</v>
       </c>
       <c r="N27">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1223,11 +1162,11 @@
         <v>160823</v>
       </c>
       <c r="N28">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1238,11 +1177,11 @@
         <v>160825</v>
       </c>
       <c r="N29">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1253,12 +1192,12 @@
         <v>161620</v>
       </c>
       <c r="N30">
-        <f>SUM([1]!Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
+        <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1D5FF-5197-4ED7-8A7B-80AF2A51C365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA8E481-51D2-4C91-B08C-43A2790F238C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="4116" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21372" yWindow="1212" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +127,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,10 +161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
@@ -462,16 +483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -515,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -530,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -544,26 +565,14 @@
         <v>0.75</v>
       </c>
       <c r="E5">
-        <v>0.9</v>
-      </c>
-      <c r="J5">
-        <v>0.8</v>
-      </c>
-      <c r="K5">
-        <v>0.9</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="N5">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.1499999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -577,26 +586,14 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="J6">
-        <v>0.5</v>
-      </c>
-      <c r="K6">
         <v>0.4</v>
       </c>
-      <c r="L6">
-        <v>0.75</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -607,29 +604,17 @@
         <v>157760</v>
       </c>
       <c r="D7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0.95</v>
-      </c>
-      <c r="J7">
-        <v>0.5</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -640,29 +625,17 @@
         <v>158369</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.9</v>
-      </c>
-      <c r="K8">
-        <v>0.5</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.6</v>
       </c>
       <c r="N8">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -673,29 +646,17 @@
         <v>160759</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>0.75</v>
-      </c>
-      <c r="K9">
-        <v>0.4</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.8</v>
-      </c>
       <c r="N9">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -706,29 +667,17 @@
         <v>160760</v>
       </c>
       <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
         <v>0.9</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>0.25</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.8</v>
-      </c>
       <c r="N10">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -744,24 +693,12 @@
       <c r="E11">
         <v>0.9</v>
       </c>
-      <c r="J11">
-        <v>0.75</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.5</v>
-      </c>
       <c r="N11">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -772,29 +709,17 @@
         <v>160762</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>0.9</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
-      </c>
-      <c r="L12">
-        <v>0.75</v>
-      </c>
-      <c r="M12">
-        <v>0.8</v>
-      </c>
       <c r="N12">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -805,29 +730,17 @@
         <v>160763</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.9</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.8</v>
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
       </c>
       <c r="N13">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -841,26 +754,14 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.9</v>
-      </c>
-      <c r="K14">
-        <v>0.4</v>
-      </c>
-      <c r="L14">
-        <v>0.75</v>
-      </c>
-      <c r="M14">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="N14">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -874,26 +775,14 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.9</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15">
-        <v>0.9</v>
-      </c>
-      <c r="M15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N15">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -904,29 +793,17 @@
         <v>160767</v>
       </c>
       <c r="D16">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>0.75</v>
-      </c>
-      <c r="K16">
-        <v>0.25</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
       <c r="N16">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -937,29 +814,17 @@
         <v>160769</v>
       </c>
       <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
         <v>0.25</v>
       </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.25</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -970,29 +835,17 @@
         <v>160773</v>
       </c>
       <c r="D18">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>0.5</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1023,21 +876,12 @@
       <c r="E20">
         <v>0.5</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
       <c r="N20">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1047,21 +891,18 @@
       <c r="C21">
         <v>160778</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>0.8</v>
       </c>
       <c r="E21">
-        <v>0.7</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N21">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1071,12 +912,18 @@
       <c r="C22">
         <v>160780</v>
       </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
       <c r="N22">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1086,12 +933,18 @@
       <c r="C23">
         <v>160781</v>
       </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
       <c r="N23">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1101,12 +954,18 @@
       <c r="C24">
         <v>160798</v>
       </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>0.6</v>
+      </c>
       <c r="N24">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1116,12 +975,18 @@
       <c r="C25">
         <v>160799</v>
       </c>
+      <c r="D25">
+        <v>0.75</v>
+      </c>
+      <c r="E25">
+        <v>1.25</v>
+      </c>
       <c r="N25">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1131,12 +996,18 @@
       <c r="C26">
         <v>160800</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
       <c r="N26">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1146,12 +1017,18 @@
       <c r="C27">
         <v>160802</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.7</v>
+      </c>
       <c r="N27">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1161,12 +1038,18 @@
       <c r="C28">
         <v>160823</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1.25</v>
+      </c>
       <c r="N28">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1176,12 +1059,18 @@
       <c r="C29">
         <v>160825</v>
       </c>
+      <c r="D29" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
       <c r="N29">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1191,9 +1080,15 @@
       <c r="C30">
         <v>161620</v>
       </c>
+      <c r="D30">
+        <v>0.9</v>
+      </c>
+      <c r="E30">
+        <v>0.4</v>
+      </c>
       <c r="N30">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA8E481-51D2-4C91-B08C-43A2790F238C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA3B941-2D0C-4E17-A7E6-D22C426B210A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21372" yWindow="1212" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,13 +167,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
@@ -483,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +574,12 @@
       <c r="E5">
         <v>0.65</v>
       </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
       <c r="N5">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -588,9 +598,12 @@
       <c r="E6">
         <v>0.4</v>
       </c>
+      <c r="F6">
+        <v>0.75</v>
+      </c>
       <c r="N6">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0.9</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -609,9 +622,12 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>0.75</v>
+      </c>
       <c r="N7">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.8</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -630,9 +646,12 @@
       <c r="E8" s="3">
         <v>0.6</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="N8">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -651,9 +670,12 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>0.75</v>
+      </c>
       <c r="N9">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -672,9 +694,12 @@
       <c r="E10">
         <v>0.9</v>
       </c>
+      <c r="F10">
+        <v>0.75</v>
+      </c>
       <c r="N10">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -693,9 +718,12 @@
       <c r="E11">
         <v>0.9</v>
       </c>
+      <c r="F11">
+        <v>0.75</v>
+      </c>
       <c r="N11">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.9</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -714,9 +742,12 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12" s="3">
+        <v>0.75</v>
+      </c>
       <c r="N12">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -735,9 +766,12 @@
       <c r="E13" s="4">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>0.75</v>
+      </c>
       <c r="N13">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -756,9 +790,12 @@
       <c r="E14">
         <v>1.25</v>
       </c>
+      <c r="F14">
+        <v>0.75</v>
+      </c>
       <c r="N14">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -777,9 +814,12 @@
       <c r="E15">
         <v>0.6</v>
       </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
       <c r="N15">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -798,9 +838,12 @@
       <c r="E16">
         <v>1</v>
       </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
       <c r="N16">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -819,9 +862,12 @@
       <c r="E17">
         <v>0.25</v>
       </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
       <c r="N17">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -840,9 +886,12 @@
       <c r="E18">
         <v>1</v>
       </c>
+      <c r="F18">
+        <v>0.75</v>
+      </c>
       <c r="N18">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -876,9 +925,12 @@
       <c r="E20">
         <v>0.5</v>
       </c>
+      <c r="F20">
+        <v>0.25</v>
+      </c>
       <c r="N20">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -897,9 +949,12 @@
       <c r="E21">
         <v>0.6</v>
       </c>
+      <c r="F21">
+        <v>0.75</v>
+      </c>
       <c r="N21">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -918,9 +973,12 @@
       <c r="E22">
         <v>0.4</v>
       </c>
+      <c r="F22">
+        <v>0.75</v>
+      </c>
       <c r="N22">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.1499999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -939,9 +997,12 @@
       <c r="E23">
         <v>0.3</v>
       </c>
+      <c r="F23" s="6">
+        <v>0.75</v>
+      </c>
       <c r="N23">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -960,9 +1021,12 @@
       <c r="E24">
         <v>0.6</v>
       </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
       <c r="N24">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.35</v>
+        <v>1.9500000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -981,9 +1045,12 @@
       <c r="E25">
         <v>1.25</v>
       </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
       <c r="N25">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1002,9 +1069,12 @@
       <c r="E26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
       <c r="N26">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1023,9 +1093,12 @@
       <c r="E27" s="3">
         <v>0.7</v>
       </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
       <c r="N27">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1044,9 +1117,12 @@
       <c r="E28">
         <v>1.25</v>
       </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
       <c r="N28">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1065,6 +1141,9 @@
       <c r="E29">
         <v>0.5</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="N29">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0.75</v>
@@ -1086,9 +1165,12 @@
       <c r="E30">
         <v>0.4</v>
       </c>
+      <c r="F30">
+        <v>0.25</v>
+      </c>
       <c r="N30">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA3B941-2D0C-4E17-A7E6-D22C426B210A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A1C98-3AFC-40BF-BAEE-A7F5B47C069A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31476" yWindow="5340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,12 +138,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
@@ -490,16 +484,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -543,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -558,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -575,14 +569,17 @@
         <v>0.65</v>
       </c>
       <c r="F5">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
       </c>
       <c r="N5">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -599,14 +596,17 @@
         <v>0.4</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
       </c>
       <c r="N6">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -623,14 +623,17 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
       </c>
       <c r="N7">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -649,12 +652,15 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
       <c r="N8">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -671,14 +677,17 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0.75</v>
       </c>
       <c r="N9">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -695,14 +704,17 @@
         <v>0.9</v>
       </c>
       <c r="F10">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
       </c>
       <c r="N10">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -719,14 +731,17 @@
         <v>0.9</v>
       </c>
       <c r="F11">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9</v>
       </c>
       <c r="N11">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -742,15 +757,18 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.75</v>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
       </c>
       <c r="N12">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -767,14 +785,17 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
       </c>
       <c r="N13">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -791,14 +812,17 @@
         <v>1.25</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>0.75</v>
       </c>
       <c r="N14">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -815,14 +839,17 @@
         <v>0.6</v>
       </c>
       <c r="F15">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.99</v>
       </c>
       <c r="N15">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -839,14 +866,17 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="G16">
         <v>0.5</v>
       </c>
       <c r="N16">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -863,14 +893,17 @@
         <v>0.25</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>0.25</v>
       </c>
       <c r="N17">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -887,14 +920,17 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="N18">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -909,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -926,14 +962,17 @@
         <v>0.5</v>
       </c>
       <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
         <v>0.25</v>
       </c>
       <c r="N20">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -943,21 +982,24 @@
       <c r="C21">
         <v>160778</v>
       </c>
-      <c r="D21" s="5">
-        <v>0.8</v>
+      <c r="D21" s="6">
+        <v>0.5</v>
       </c>
       <c r="E21">
         <v>0.6</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
       </c>
       <c r="N21">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -974,14 +1016,17 @@
         <v>0.4</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
       </c>
       <c r="N22">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -997,15 +1042,18 @@
       <c r="E23">
         <v>0.3</v>
       </c>
-      <c r="F23" s="6">
-        <v>0.75</v>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4</v>
       </c>
       <c r="N23">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1022,14 +1070,17 @@
         <v>0.6</v>
       </c>
       <c r="F24">
-        <v>0.6</v>
+        <v>0.85</v>
+      </c>
+      <c r="G24">
+        <v>0.75</v>
       </c>
       <c r="N24">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.9500000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1046,14 +1097,17 @@
         <v>1.25</v>
       </c>
       <c r="F25">
+        <v>0.75</v>
+      </c>
+      <c r="G25">
         <v>0.5</v>
       </c>
       <c r="N25">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1070,14 +1124,17 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="G26">
+        <v>0.25</v>
       </c>
       <c r="N26">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1091,17 +1148,20 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
+        <v>0.75</v>
+      </c>
+      <c r="G27">
         <v>0.5</v>
       </c>
       <c r="N27">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1118,14 +1178,17 @@
         <v>1.25</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="G28">
+        <v>0.35</v>
       </c>
       <c r="N28">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1142,14 +1205,17 @@
         <v>0.5</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
       </c>
       <c r="N29">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1166,11 +1232,14 @@
         <v>0.4</v>
       </c>
       <c r="F30">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="N30">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A1C98-3AFC-40BF-BAEE-A7F5B47C069A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736515E7-24F4-43EB-81DB-D9C2A4341052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31476" yWindow="5340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A3:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,9 +574,12 @@
       <c r="G5">
         <v>0.5</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="N5">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -601,9 +604,12 @@
       <c r="G6">
         <v>0.5</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="N6">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -628,9 +634,12 @@
       <c r="G7">
         <v>0.5</v>
       </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
       <c r="N7">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -655,9 +664,12 @@
       <c r="G8">
         <v>0.5</v>
       </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
       <c r="N8">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -682,9 +694,12 @@
       <c r="G9">
         <v>0.75</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="N9">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -709,9 +724,12 @@
       <c r="G10">
         <v>0.5</v>
       </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
       <c r="N10">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -736,9 +754,12 @@
       <c r="G11">
         <v>0.9</v>
       </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
       <c r="N11">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.8</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -763,9 +784,12 @@
       <c r="G12">
         <v>0.5</v>
       </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
       <c r="N12">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -790,9 +814,12 @@
       <c r="G13">
         <v>0.5</v>
       </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
       <c r="N13">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -817,9 +844,12 @@
       <c r="G14">
         <v>0.75</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="N14">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -844,9 +874,12 @@
       <c r="G15">
         <v>0.99</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="N15">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.59</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -871,9 +904,12 @@
       <c r="G16">
         <v>0.5</v>
       </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="N16">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -898,9 +934,12 @@
       <c r="G17">
         <v>0.25</v>
       </c>
+      <c r="H17">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="N17">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.75</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -925,9 +964,12 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>0.8</v>
+      </c>
       <c r="N18">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -967,9 +1009,12 @@
       <c r="G20">
         <v>0.25</v>
       </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
       <c r="N20">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.25</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -994,9 +1039,12 @@
       <c r="G21">
         <v>0.5</v>
       </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
       <c r="N21">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1021,9 +1069,12 @@
       <c r="G22">
         <v>0.5</v>
       </c>
+      <c r="H22">
+        <v>0.75</v>
+      </c>
       <c r="N22">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1048,9 +1099,12 @@
       <c r="G23">
         <v>0.4</v>
       </c>
+      <c r="H23">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="N23">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.2000000000000002</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1075,9 +1129,12 @@
       <c r="G24">
         <v>0.75</v>
       </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="N24">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1102,9 +1159,12 @@
       <c r="G25">
         <v>0.5</v>
       </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
       <c r="N25">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1129,9 +1189,12 @@
       <c r="G26">
         <v>0.25</v>
       </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
       <c r="N26">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1156,9 +1219,12 @@
       <c r="G27">
         <v>0.5</v>
       </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
       <c r="N27">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1183,9 +1249,12 @@
       <c r="G28">
         <v>0.35</v>
       </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
       <c r="N28">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.35</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1210,9 +1279,12 @@
       <c r="G29">
         <v>0.5</v>
       </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
       <c r="N29">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1237,9 +1309,12 @@
       <c r="G30">
         <v>0</v>
       </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
       <c r="N30">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736515E7-24F4-43EB-81DB-D9C2A4341052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D286B-92B0-42D8-9A7B-E535E62AC83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31476" yWindow="5340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,9 +577,15 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>0.8</v>
+      </c>
+      <c r="J5">
+        <v>0.45</v>
+      </c>
       <c r="N5">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.9</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -607,9 +613,15 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.4</v>
+      </c>
       <c r="N6">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.4</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -637,9 +649,15 @@
       <c r="H7">
         <v>0.5</v>
       </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.25</v>
+      </c>
       <c r="N7">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -667,9 +685,15 @@
       <c r="H8">
         <v>0.8</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.6</v>
+      </c>
       <c r="N8">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -697,9 +721,15 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
       <c r="N9">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -727,9 +757,15 @@
       <c r="H10">
         <v>0.6</v>
       </c>
+      <c r="I10">
+        <v>0.6</v>
+      </c>
+      <c r="J10">
+        <v>0.6</v>
+      </c>
       <c r="N10">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -757,9 +793,15 @@
       <c r="H11">
         <v>0.8</v>
       </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
+      </c>
       <c r="N11">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.5999999999999996</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -787,9 +829,15 @@
       <c r="H12">
         <v>0.9</v>
       </c>
+      <c r="I12">
+        <v>0.9</v>
+      </c>
+      <c r="J12">
+        <v>0.6</v>
+      </c>
       <c r="N12">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -817,9 +865,15 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.6</v>
+      </c>
       <c r="N13">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.0999999999999996</v>
+        <v>5.6999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -847,9 +901,15 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>0.6</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
       <c r="N14">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5</v>
+        <v>6.1999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -877,9 +937,15 @@
       <c r="H15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>0.6</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
       <c r="N15">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.59</v>
+        <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -907,9 +973,15 @@
       <c r="H16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
       <c r="N16">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -937,9 +1009,15 @@
       <c r="H17">
         <v>0.55000000000000004</v>
       </c>
+      <c r="I17">
+        <v>0.6</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
       <c r="N17">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -967,9 +1045,15 @@
       <c r="H18">
         <v>0.8</v>
       </c>
+      <c r="I18">
+        <v>0.75</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
       <c r="N18">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.8</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1012,9 +1096,15 @@
       <c r="H20">
         <v>0.8</v>
       </c>
+      <c r="I20">
+        <v>0.6</v>
+      </c>
+      <c r="J20">
+        <v>0.25</v>
+      </c>
       <c r="N20">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1042,9 +1132,24 @@
       <c r="H21">
         <v>0.5</v>
       </c>
+      <c r="I21">
+        <v>0.4</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
       <c r="N21">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1072,9 +1177,15 @@
       <c r="H22">
         <v>0.75</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
       <c r="N22">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1102,9 +1213,15 @@
       <c r="H23">
         <v>0.55000000000000004</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.4</v>
+      </c>
       <c r="N23">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.75</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1132,9 +1249,15 @@
       <c r="H24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.6</v>
+      </c>
       <c r="N24">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.95</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1162,9 +1285,15 @@
       <c r="H25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
       <c r="N25">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1192,9 +1321,15 @@
       <c r="H26">
         <v>0.8</v>
       </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
       <c r="N26">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1222,9 +1357,15 @@
       <c r="H27">
         <v>1</v>
       </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
       <c r="N27">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1252,9 +1393,15 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
       <c r="N28">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.3499999999999996</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1282,9 +1429,15 @@
       <c r="H29">
         <v>0.8</v>
       </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.3</v>
+      </c>
       <c r="N29">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.2999999999999998</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1312,9 +1465,15 @@
       <c r="H30">
         <v>0.9</v>
       </c>
+      <c r="I30">
+        <v>0.75</v>
+      </c>
+      <c r="J30">
+        <v>0.25</v>
+      </c>
       <c r="N30">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D286B-92B0-42D8-9A7B-E535E62AC83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEBED4-431F-4307-AA7E-F14445FE6D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A3:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,9 +583,12 @@
       <c r="J5">
         <v>0.45</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="N5">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.15</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -619,9 +622,12 @@
       <c r="J6">
         <v>0.4</v>
       </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
       <c r="N6">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.8000000000000007</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -655,9 +661,12 @@
       <c r="J7">
         <v>0.25</v>
       </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
       <c r="N7">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.55</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -691,9 +700,12 @@
       <c r="J8">
         <v>0.6</v>
       </c>
+      <c r="K8">
+        <v>0.6</v>
+      </c>
       <c r="N8">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.3</v>
+        <v>5.8999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -727,9 +739,12 @@
       <c r="J9">
         <v>0.5</v>
       </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
       <c r="N9">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -763,9 +778,12 @@
       <c r="J10">
         <v>0.6</v>
       </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
       <c r="N10">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -799,9 +817,12 @@
       <c r="J11">
         <v>0.6</v>
       </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
       <c r="N11">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -835,9 +856,12 @@
       <c r="J12">
         <v>0.6</v>
       </c>
+      <c r="K12">
+        <v>0.2</v>
+      </c>
       <c r="N12">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -871,9 +895,12 @@
       <c r="J13">
         <v>0.6</v>
       </c>
+      <c r="K13">
+        <v>0.2</v>
+      </c>
       <c r="N13">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.6999999999999993</v>
+        <v>5.8999999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -907,9 +934,12 @@
       <c r="J14">
         <v>0.6</v>
       </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
       <c r="N14">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.1999999999999993</v>
+        <v>6.7999999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -943,9 +973,12 @@
       <c r="J15">
         <v>1</v>
       </c>
+      <c r="K15">
+        <v>0.4</v>
+      </c>
       <c r="N15">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.1899999999999995</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -979,9 +1012,12 @@
       <c r="J16">
         <v>0.3</v>
       </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
       <c r="N16">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1015,9 +1051,12 @@
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
       <c r="N17">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1051,9 +1090,12 @@
       <c r="J18">
         <v>0.5</v>
       </c>
+      <c r="K18">
+        <v>0.4</v>
+      </c>
       <c r="N18">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.05</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEBED4-431F-4307-AA7E-F14445FE6D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CDAA95-DE7E-45A7-856E-8703632C57A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,9 +586,15 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
       <c r="N5">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.15</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -625,9 +631,15 @@
       <c r="K6">
         <v>0.6</v>
       </c>
+      <c r="L6">
+        <v>0.75</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
       <c r="N6">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.4</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -664,9 +676,15 @@
       <c r="K7">
         <v>0.8</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
       <c r="N7">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.35</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -703,9 +721,15 @@
       <c r="K8">
         <v>0.6</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.75</v>
+      </c>
       <c r="N8">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.8999999999999995</v>
+        <v>7.6499999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -742,9 +766,15 @@
       <c r="K9">
         <v>0.5</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.75</v>
+      </c>
       <c r="N9">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -781,9 +811,15 @@
       <c r="K10">
         <v>0.2</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.75</v>
+      </c>
       <c r="N10">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -820,9 +856,15 @@
       <c r="K11">
         <v>0.4</v>
       </c>
+      <c r="L11">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1.25</v>
+      </c>
       <c r="N11">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -859,9 +901,15 @@
       <c r="K12">
         <v>0.2</v>
       </c>
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+      <c r="M12">
+        <v>0.5</v>
+      </c>
       <c r="N12">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.7</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -898,9 +946,15 @@
       <c r="K13">
         <v>0.2</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
       <c r="N13">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.8999999999999995</v>
+        <v>7.3999999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -937,9 +991,15 @@
       <c r="K14">
         <v>0.6</v>
       </c>
+      <c r="L14">
+        <v>0.75</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
       <c r="N14">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.7999999999999989</v>
+        <v>8.0499999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -976,9 +1036,15 @@
       <c r="K15">
         <v>0.4</v>
       </c>
+      <c r="L15">
+        <v>0.99</v>
+      </c>
+      <c r="M15">
+        <v>0.75</v>
+      </c>
       <c r="N15">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.59</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1015,9 +1081,15 @@
       <c r="K16">
         <v>0.5</v>
       </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
       <c r="N16">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1054,9 +1126,15 @@
       <c r="K17">
         <v>0.2</v>
       </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.1</v>
+        <v>3.9000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1093,9 +1171,15 @@
       <c r="K18">
         <v>0.4</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="N18">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>6.45</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1144,9 +1228,18 @@
       <c r="J20">
         <v>0.25</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
       <c r="N20">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1225,9 +1318,18 @@
       <c r="J22">
         <v>0.5</v>
       </c>
+      <c r="K22">
+        <v>0.4</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
       <c r="N22">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.9000000000000004</v>
+        <v>7.3000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1261,9 +1363,18 @@
       <c r="J23">
         <v>0.4</v>
       </c>
+      <c r="K23">
+        <v>0.4</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
       <c r="N23">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.1500000000000004</v>
+        <v>5.5500000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1297,9 +1408,18 @@
       <c r="J24">
         <v>0.6</v>
       </c>
+      <c r="K24">
+        <v>0.4</v>
+      </c>
+      <c r="L24">
+        <v>0.7</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
       <c r="N24">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.55</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1333,9 +1453,18 @@
       <c r="J25">
         <v>0.5</v>
       </c>
+      <c r="K25">
+        <v>0.4</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.75</v>
+      </c>
       <c r="N25">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.25</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1369,9 +1498,18 @@
       <c r="J26">
         <v>0.5</v>
       </c>
+      <c r="K26">
+        <v>0.4</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.75</v>
+      </c>
       <c r="N26">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>4.8</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1405,9 +1543,18 @@
       <c r="J27">
         <v>0.25</v>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
       <c r="N27">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1441,9 +1588,18 @@
       <c r="J28">
         <v>0.5</v>
       </c>
+      <c r="K28">
+        <v>0.4</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.3</v>
+      </c>
       <c r="N28">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>5.85</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1477,9 +1633,18 @@
       <c r="J29">
         <v>0.3</v>
       </c>
+      <c r="K29">
+        <v>0.4</v>
+      </c>
+      <c r="L29">
+        <v>0.75</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
       <c r="N29">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.5999999999999996</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1513,9 +1678,18 @@
       <c r="J30">
         <v>0.25</v>
       </c>
+      <c r="K30">
+        <v>0.4</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
       <c r="N30">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
-        <v>3.7</v>
+        <v>5.1000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CDAA95-DE7E-45A7-856E-8703632C57A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983370C3-BC43-46A2-83B5-BB1CB54BFF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>L4</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Lista 1.10</t>
+  </si>
+  <si>
+    <t>Pkt do zdobycia</t>
+  </si>
+  <si>
+    <t>Lista 2</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>Procent</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -169,12 +181,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -192,12 +211,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:N30" totalsRowShown="0">
-  <autoFilter ref="A3:N30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:Q30" totalsRowShown="0">
+  <autoFilter ref="A3:Q30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N30">
     <sortCondition ref="C3:C30"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{B1A7F767-CF2C-4BD9-9146-5FA2959B05B3}" name="Grupa"/>
     <tableColumn id="2" xr3:uid="{2B945A6E-C9F4-4DDE-8C06-4E2314F3DB82}" name="LP"/>
     <tableColumn id="3" xr3:uid="{9BFAEF19-D83D-46A1-80E0-7E9789C00ADB}" name="Indeks"/>
@@ -211,11 +230,28 @@
     <tableColumn id="13" xr3:uid="{99FA7B8F-3265-4053-A864-7D708ACF70F3}" name="Lista 1.8"/>
     <tableColumn id="14" xr3:uid="{AF6A9FC9-C6EF-4E93-A8CD-D1AF9B89F86B}" name="Lista 1.9"/>
     <tableColumn id="15" xr3:uid="{B85D81D9-5EC1-4B7D-A6E1-1AB4B3193040}" name="Lista 1.10"/>
-    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{4D391143-F283-44F2-99D9-DFF7DD44893D}" name="Lista 2"/>
+    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="1">
+      <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33A1547E-3655-42D5-A4DA-652F2D71C317}" name="Tabela3" displayName="Tabela3" ref="O34:O35" totalsRowShown="0">
+  <autoFilter ref="O34:O35" xr:uid="{51235D92-9BFD-4AE0-91DC-FE0CD8927996}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9AD703C4-499F-467F-96D8-195D0B785B29}" name="Pkt do zdobycia"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -482,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N30"/>
+  <dimension ref="A3:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +529,7 @@
     <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -536,8 +572,17 @@
       <c r="N3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -551,8 +596,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -596,8 +649,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.80749999999999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -641,8 +705,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>6.15</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.3075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -686,8 +758,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>6.35</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.3175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -731,8 +811,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.6499999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.68249999999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -776,8 +867,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>17</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -821,8 +923,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>6.75</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -866,8 +976,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>8.5</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -911,8 +1029,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>6.95</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.34750000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -956,8 +1082,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.3999999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1001,8 +1135,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8.0499999999999989</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>15.049999999999999</v>
+      </c>
+      <c r="Q14" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.75249999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1046,8 +1191,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>8.33</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.41649999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1091,8 +1244,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>6.3</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1136,8 +1297,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>3.9000000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>8.9</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1181,8 +1353,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>7.45</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1376,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1241,8 +1429,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>10.4</v>
+      </c>
+      <c r="Q20" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1286,8 +1485,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q21" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1331,8 +1538,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.3000000000000007</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>15.3</v>
+      </c>
+      <c r="Q22" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1376,8 +1594,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>5.5500000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="Q23" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.27750000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1421,8 +1647,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.65</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.88249999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1466,8 +1703,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>12.4</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1511,8 +1759,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>6.95</v>
+      </c>
+      <c r="Q26" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.34750000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1556,8 +1812,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>12</v>
+      </c>
+      <c r="P27">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1601,8 +1868,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.55</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>7.55</v>
+      </c>
+      <c r="Q28" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.3775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1646,8 +1921,19 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>4.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>14.75</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1690,14 +1976,36 @@
       <c r="N30">
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>5.1000000000000005</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Q30" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.50500000000000012</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983370C3-BC43-46A2-83B5-BB1CB54BFF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072D09D-C975-4B3E-B664-FDC93B7CC908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>L4</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Procent</t>
+  </si>
+  <si>
+    <t>Lista 3</t>
+  </si>
+  <si>
+    <t>Lista 3.1</t>
+  </si>
+  <si>
+    <t>Lista 3.2</t>
+  </si>
+  <si>
+    <t>Lista 3.3</t>
   </si>
 </sst>
 </file>
@@ -187,12 +199,15 @@
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -211,12 +226,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:Q30" totalsRowShown="0">
-  <autoFilter ref="A3:Q30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:U30" totalsRowShown="0">
+  <autoFilter ref="A3:U30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N30">
     <sortCondition ref="C3:C30"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{B1A7F767-CF2C-4BD9-9146-5FA2959B05B3}" name="Grupa"/>
     <tableColumn id="2" xr3:uid="{2B945A6E-C9F4-4DDE-8C06-4E2314F3DB82}" name="LP"/>
     <tableColumn id="3" xr3:uid="{9BFAEF19-D83D-46A1-80E0-7E9789C00ADB}" name="Indeks"/>
@@ -230,14 +245,20 @@
     <tableColumn id="13" xr3:uid="{99FA7B8F-3265-4053-A864-7D708ACF70F3}" name="Lista 1.8"/>
     <tableColumn id="14" xr3:uid="{AF6A9FC9-C6EF-4E93-A8CD-D1AF9B89F86B}" name="Lista 1.9"/>
     <tableColumn id="15" xr3:uid="{B85D81D9-5EC1-4B7D-A6E1-1AB4B3193040}" name="Lista 1.10"/>
-    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="3">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4D391143-F283-44F2-99D9-DFF7DD44893D}" name="Lista 2"/>
-    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="1">
-      <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]</calculatedColumnFormula>
+    <tableColumn id="22" xr3:uid="{158E2FA1-570C-49A6-BB8A-B27E72F6BB56}" name="Lista 3.1"/>
+    <tableColumn id="21" xr3:uid="{719A07F4-8B54-49B2-93C1-18160B943267}" name="Lista 3.2"/>
+    <tableColumn id="20" xr3:uid="{6CA19177-4EEC-42FA-9312-A6880C0781C0}" name="Lista 3.3"/>
+    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="2">
       <calculatedColumnFormula>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -518,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Q35"/>
+  <dimension ref="A3:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +550,7 @@
     <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -576,13 +597,25 @@
         <v>17</v>
       </c>
       <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -596,16 +629,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
-      <c r="P4">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -652,16 +689,20 @@
       <c r="O5">
         <v>8</v>
       </c>
-      <c r="P5">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S5">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>16.149999999999999</v>
       </c>
-      <c r="Q5" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.80749999999999988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U5" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.53833333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -705,16 +746,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.15</v>
       </c>
-      <c r="P6">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>6.15</v>
-      </c>
-      <c r="Q6" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.3075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>14.15</v>
+      </c>
+      <c r="U6" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.47166666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -758,16 +806,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.35</v>
       </c>
-      <c r="P7">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>6.35</v>
-      </c>
-      <c r="Q7" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.3175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="U7" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -814,16 +869,20 @@
       <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S8">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>13.649999999999999</v>
       </c>
-      <c r="Q8" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.68249999999999988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U8" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.45499999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -870,16 +929,20 @@
       <c r="O9">
         <v>9</v>
       </c>
-      <c r="P9">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S9">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>17</v>
       </c>
-      <c r="Q9" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U9" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -923,16 +986,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.75</v>
       </c>
-      <c r="P10">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>6.75</v>
-      </c>
-      <c r="Q10" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.33750000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>16.75</v>
+      </c>
+      <c r="U10" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -976,16 +1046,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8.5</v>
       </c>
-      <c r="P11">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>8.5</v>
-      </c>
-      <c r="Q11" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>16.5</v>
+      </c>
+      <c r="U11" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1029,16 +1106,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.95</v>
       </c>
-      <c r="P12">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>6.95</v>
-      </c>
-      <c r="Q12" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.34750000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>13.95</v>
+      </c>
+      <c r="U12" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.46499999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1082,16 +1166,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.3999999999999995</v>
       </c>
-      <c r="P13">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>7.3999999999999995</v>
-      </c>
-      <c r="Q13" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="U13" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.51333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1138,16 +1229,20 @@
       <c r="O14">
         <v>7</v>
       </c>
-      <c r="P14">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S14">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>15.049999999999999</v>
       </c>
-      <c r="Q14" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.75249999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U14" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.50166666666666659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1191,16 +1286,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>8.33</v>
       </c>
-      <c r="P15">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>8.33</v>
-      </c>
-      <c r="Q15" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.41649999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>9.1</v>
+      </c>
+      <c r="S15">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>17.43</v>
+      </c>
+      <c r="U15" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1244,16 +1346,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.3</v>
       </c>
-      <c r="P16">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>6.3</v>
-      </c>
-      <c r="Q16" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>8.5</v>
+      </c>
+      <c r="S16">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>14.8</v>
+      </c>
+      <c r="U16" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.49333333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1300,16 +1409,20 @@
       <c r="O17">
         <v>5</v>
       </c>
-      <c r="P17">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S17">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>8.9</v>
       </c>
-      <c r="Q17" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U17" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.29666666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1353,16 +1466,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.45</v>
       </c>
-      <c r="P18">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>7.45</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.3725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>14.45</v>
+      </c>
+      <c r="U18" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.48166666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1376,16 +1496,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>0</v>
       </c>
-      <c r="P19">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1432,16 +1556,20 @@
       <c r="O20">
         <v>6</v>
       </c>
-      <c r="P20">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S20">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>10.4</v>
       </c>
-      <c r="Q20" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U20" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.34666666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1485,16 +1613,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>3.5</v>
       </c>
-      <c r="P21">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>3.5</v>
-      </c>
-      <c r="Q21" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>11.5</v>
+      </c>
+      <c r="U21" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1539,18 +1674,22 @@
         <v>7.3000000000000007</v>
       </c>
       <c r="O22">
-        <v>8</v>
-      </c>
-      <c r="P22">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>15.3</v>
-      </c>
-      <c r="Q22" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>14.3</v>
+      </c>
+      <c r="U22" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.47666666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1594,16 +1733,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>5.5500000000000007</v>
       </c>
-      <c r="P23">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="Q23" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.27750000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>13.55</v>
+      </c>
+      <c r="U23" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.45166666666666672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1651,15 +1797,28 @@
         <v>10</v>
       </c>
       <c r="P24">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="Q24" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.88249999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>3.25</v>
+      </c>
+      <c r="S24">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>6.75</v>
+      </c>
+      <c r="T24">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>24.4</v>
+      </c>
+      <c r="U24" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.81333333333333324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1706,16 +1865,20 @@
       <c r="O25">
         <v>5</v>
       </c>
-      <c r="P25">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S25">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>12.4</v>
       </c>
-      <c r="Q25" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U25" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.41333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1759,16 +1922,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>6.95</v>
       </c>
-      <c r="P26">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>6.95</v>
-      </c>
-      <c r="Q26" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.34750000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>14.95</v>
+      </c>
+      <c r="U26" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.49833333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1815,16 +1985,20 @@
       <c r="O27">
         <v>12</v>
       </c>
-      <c r="P27">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S27">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>20</v>
       </c>
-      <c r="Q27" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U27" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1868,16 +2042,23 @@
         <f>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</f>
         <v>7.55</v>
       </c>
-      <c r="P28">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
-        <v>7.55</v>
-      </c>
-      <c r="Q28" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.3775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+        <v>12.55</v>
+      </c>
+      <c r="U28" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.41833333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1924,16 +2105,20 @@
       <c r="O29">
         <v>10</v>
       </c>
-      <c r="P29">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S29">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>14.75</v>
       </c>
-      <c r="Q29" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.73750000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U29" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.49166666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1980,13 +2165,17 @@
       <c r="O30">
         <v>5</v>
       </c>
-      <c r="P30">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]</f>
+      <c r="S30">
+        <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
         <v>10.100000000000001</v>
       </c>
-      <c r="Q30" s="7">
-        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.50500000000000012</v>
+      <c r="U30" s="7">
+        <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
+        <v>0.33666666666666673</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.3">
@@ -1996,7 +2185,7 @@
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072D09D-C975-4B3E-B664-FDC93B7CC908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366CCDCE-27F7-4144-B4BB-72C9719CFD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="4116" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -201,13 +201,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -252,13 +252,13 @@
     <tableColumn id="22" xr3:uid="{158E2FA1-570C-49A6-BB8A-B27E72F6BB56}" name="Lista 3.1"/>
     <tableColumn id="21" xr3:uid="{719A07F4-8B54-49B2-93C1-18160B943267}" name="Lista 3.2"/>
     <tableColumn id="20" xr3:uid="{6CA19177-4EEC-42FA-9312-A6880C0781C0}" name="Lista 3.3"/>
-    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="1">
       <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="2">
+    <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -542,7 +542,7 @@
   <dimension ref="A3:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,26 +1796,17 @@
       <c r="O24">
         <v>10</v>
       </c>
-      <c r="P24">
-        <v>1.5</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>3.25</v>
-      </c>
       <c r="S24">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>24.4</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="U24" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.81333333333333324</v>
+        <v>0.58833333333333326</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366CCDCE-27F7-4144-B4BB-72C9719CFD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB5EFF-D124-4AFC-9227-BF3038B4C2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="4116" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:U30" totalsRowShown="0">
   <autoFilter ref="A3:U30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:U30">
     <sortCondition ref="C3:C30"/>
   </sortState>
   <tableColumns count="21">
@@ -542,7 +542,7 @@
   <dimension ref="A3:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,17 +689,26 @@
       <c r="O5">
         <v>8</v>
       </c>
+      <c r="P5">
+        <v>1.7</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>3.5</v>
+      </c>
       <c r="S5">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="T5">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>16.149999999999999</v>
+        <v>23.349999999999998</v>
       </c>
       <c r="U5" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.53833333333333333</v>
+        <v>0.77833333333333321</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -749,17 +758,26 @@
       <c r="O6">
         <v>8</v>
       </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
       <c r="S6">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>14.15</v>
+        <v>21.15</v>
       </c>
       <c r="U6" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.47166666666666668</v>
+        <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -869,17 +887,26 @@
       <c r="O8">
         <v>6</v>
       </c>
+      <c r="P8">
+        <v>1.5</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
       <c r="S8">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>13.649999999999999</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="U8" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.45499999999999996</v>
+        <v>0.62166666666666659</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -929,17 +956,26 @@
       <c r="O9">
         <v>9</v>
       </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>2.5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
       <c r="S9">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="T9">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>17</v>
+        <v>27.5</v>
       </c>
       <c r="U9" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.56666666666666665</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -989,17 +1025,26 @@
       <c r="O10">
         <v>10</v>
       </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>3.5</v>
+      </c>
       <c r="S10">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T10">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>16.75</v>
+        <v>25.25</v>
       </c>
       <c r="U10" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.55833333333333335</v>
+        <v>0.84166666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1049,17 +1094,26 @@
       <c r="O11">
         <v>8</v>
       </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
       <c r="S11">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>16.5</v>
+        <v>26.5</v>
       </c>
       <c r="U11" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.55000000000000004</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1109,17 +1163,26 @@
       <c r="O12">
         <v>7</v>
       </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
       <c r="S12">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T12">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>13.95</v>
+        <v>20.95</v>
       </c>
       <c r="U12" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.46499999999999997</v>
+        <v>0.69833333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1169,17 +1232,26 @@
       <c r="O13">
         <v>8</v>
       </c>
+      <c r="P13">
+        <v>1.5</v>
+      </c>
+      <c r="Q13">
+        <v>1.5</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
       <c r="S13">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>15.399999999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="U13" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.51333333333333331</v>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1229,17 +1301,26 @@
       <c r="O14">
         <v>7</v>
       </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
       <c r="S14">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>15.049999999999999</v>
+        <v>25.049999999999997</v>
       </c>
       <c r="U14" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.50166666666666659</v>
+        <v>0.83499999999999985</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1289,17 +1370,26 @@
       <c r="O15">
         <v>9.1</v>
       </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
       <c r="S15">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="T15">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>17.43</v>
+        <v>26.93</v>
       </c>
       <c r="U15" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.58099999999999996</v>
+        <v>0.89766666666666661</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1349,17 +1439,26 @@
       <c r="O16">
         <v>8.5</v>
       </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
       <c r="S16">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T16">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>14.8</v>
+        <v>21.8</v>
       </c>
       <c r="U16" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.49333333333333335</v>
+        <v>0.72666666666666668</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1409,17 +1508,26 @@
       <c r="O17">
         <v>5</v>
       </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
       <c r="S17">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T17">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>8.9</v>
+        <v>12.4</v>
       </c>
       <c r="U17" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.29666666666666669</v>
+        <v>0.41333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1469,17 +1577,26 @@
       <c r="O18">
         <v>7</v>
       </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
       <c r="S18">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>14.45</v>
+        <v>24.45</v>
       </c>
       <c r="U18" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.48166666666666663</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1556,17 +1673,26 @@
       <c r="O20">
         <v>6</v>
       </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>1.5</v>
+      </c>
+      <c r="R20">
+        <v>3.5</v>
+      </c>
       <c r="S20">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T20">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>10.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="U20" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.34666666666666668</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1616,17 +1742,26 @@
       <c r="O21">
         <v>8</v>
       </c>
+      <c r="P21">
+        <v>2.99</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
       <c r="S21">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="T21">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>11.5</v>
+        <v>20.490000000000002</v>
       </c>
       <c r="U21" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.38333333333333336</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -1676,17 +1811,26 @@
       <c r="O22">
         <v>7</v>
       </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>1.5</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
       <c r="S22">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T22">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>14.3</v>
+        <v>20.8</v>
       </c>
       <c r="U22" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.47666666666666668</v>
+        <v>0.69333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -1736,17 +1880,26 @@
       <c r="O23">
         <v>8</v>
       </c>
+      <c r="P23">
+        <v>2.99</v>
+      </c>
+      <c r="Q23">
+        <v>1.75</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
       <c r="S23">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>7.74</v>
       </c>
       <c r="T23">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>13.55</v>
+        <v>21.29</v>
       </c>
       <c r="U23" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.45166666666666672</v>
+        <v>0.70966666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -1796,17 +1949,26 @@
       <c r="O24">
         <v>10</v>
       </c>
+      <c r="P24">
+        <v>1.5</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>4.5</v>
+      </c>
       <c r="S24">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T24">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>17.649999999999999</v>
+        <v>25.65</v>
       </c>
       <c r="U24" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.58833333333333326</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -1856,17 +2018,26 @@
       <c r="O25">
         <v>5</v>
       </c>
+      <c r="P25">
+        <v>1.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
       <c r="S25">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>12.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="U25" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.41333333333333333</v>
+        <v>0.54666666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -1916,17 +2087,26 @@
       <c r="O26">
         <v>8</v>
       </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>1.5</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
       <c r="S26">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T26">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>14.95</v>
+        <v>20.45</v>
       </c>
       <c r="U26" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.49833333333333329</v>
+        <v>0.68166666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -1976,17 +2156,26 @@
       <c r="O27">
         <v>12</v>
       </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
       <c r="S27">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U27" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -2036,17 +2225,26 @@
       <c r="O28">
         <v>5</v>
       </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
       <c r="S28">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T28">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>12.55</v>
+        <v>22.55</v>
       </c>
       <c r="U28" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.41833333333333333</v>
+        <v>0.75166666666666671</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -2096,17 +2294,26 @@
       <c r="O29">
         <v>10</v>
       </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
       <c r="S29">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>14.75</v>
+        <v>24.75</v>
       </c>
       <c r="U29" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.49166666666666664</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -2156,17 +2363,26 @@
       <c r="O30">
         <v>5</v>
       </c>
+      <c r="P30">
+        <v>1.25</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
       <c r="S30">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T30">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>10.100000000000001</v>
+        <v>13.350000000000001</v>
       </c>
       <c r="U30" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.33666666666666673</v>
+        <v>0.44500000000000006</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.3">

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB5EFF-D124-4AFC-9227-BF3038B4C2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA491C6-41C2-4B5F-86DB-FBD4C88FD1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="4116" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A3:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,17 +827,26 @@
       <c r="O7">
         <v>10</v>
       </c>
+      <c r="P7">
+        <v>2.99</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
       <c r="S7">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="T7">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>16.350000000000001</v>
+        <v>25.340000000000003</v>
       </c>
       <c r="U7" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.54500000000000004</v>
+        <v>0.84466666666666679</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1742,26 +1751,17 @@
       <c r="O21">
         <v>8</v>
       </c>
-      <c r="P21">
-        <v>2.99</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <v>4</v>
-      </c>
       <c r="S21">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>20.490000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="U21" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.68300000000000005</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA491C6-41C2-4B5F-86DB-FBD4C88FD1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4989E0-08F8-4C39-9F2A-13791D7254D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="4116" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>L4</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Lista 3.3</t>
+  </si>
+  <si>
+    <t>Lista 4</t>
+  </si>
+  <si>
+    <t>Lista 4.1</t>
+  </si>
+  <si>
+    <t>Lista 4.2</t>
+  </si>
+  <si>
+    <t>Lista 4.3</t>
+  </si>
+  <si>
+    <t>Lista 4.4</t>
+  </si>
+  <si>
+    <t>Lista 4.5</t>
   </si>
 </sst>
 </file>
@@ -199,9 +217,12 @@
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -226,12 +247,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:U30" totalsRowShown="0">
-  <autoFilter ref="A3:U30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:U30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:AA30" totalsRowShown="0">
+  <autoFilter ref="A3:AA30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA30">
     <sortCondition ref="C3:C30"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{B1A7F767-CF2C-4BD9-9146-5FA2959B05B3}" name="Grupa"/>
     <tableColumn id="2" xr3:uid="{2B945A6E-C9F4-4DDE-8C06-4E2314F3DB82}" name="LP"/>
     <tableColumn id="3" xr3:uid="{9BFAEF19-D83D-46A1-80E0-7E9789C00ADB}" name="Indeks"/>
@@ -245,18 +266,26 @@
     <tableColumn id="13" xr3:uid="{99FA7B8F-3265-4053-A864-7D708ACF70F3}" name="Lista 1.8"/>
     <tableColumn id="14" xr3:uid="{AF6A9FC9-C6EF-4E93-A8CD-D1AF9B89F86B}" name="Lista 1.9"/>
     <tableColumn id="15" xr3:uid="{B85D81D9-5EC1-4B7D-A6E1-1AB4B3193040}" name="Lista 1.10"/>
-    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="3">
+    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="4">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4D391143-F283-44F2-99D9-DFF7DD44893D}" name="Lista 2"/>
     <tableColumn id="22" xr3:uid="{158E2FA1-570C-49A6-BB8A-B27E72F6BB56}" name="Lista 3.1"/>
     <tableColumn id="21" xr3:uid="{719A07F4-8B54-49B2-93C1-18160B943267}" name="Lista 3.2"/>
     <tableColumn id="20" xr3:uid="{6CA19177-4EEC-42FA-9312-A6880C0781C0}" name="Lista 3.3"/>
-    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="3">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="26" xr3:uid="{26EDB5B8-FE56-41CD-A72B-D4C3931CDE99}" name="Lista 4.1"/>
+    <tableColumn id="25" xr3:uid="{FB73BE52-5B27-49ED-A4CC-3EDDC28C26E1}" name="Lista 4.2"/>
+    <tableColumn id="24" xr3:uid="{75674EDA-47DA-46A1-B59D-23246B8602A0}" name="Lista 4.3"/>
+    <tableColumn id="27" xr3:uid="{3384B4E4-AE8B-4B4D-AB8F-3177F0A382B4}" name="Lista 4.4"/>
+    <tableColumn id="23" xr3:uid="{3A8429E9-E920-48A0-91ED-43BA5DA358CE}" name="Lista 4.5"/>
+    <tableColumn id="18" xr3:uid="{6ADB2887-0ACD-4AE5-B910-B268FC329AA1}" name="Lista 4" dataDxfId="2">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="1">
-      <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</calculatedColumnFormula>
@@ -539,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:U35"/>
+  <dimension ref="A3:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +579,7 @@
     <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -609,13 +638,31 @@
         <v>20</v>
       </c>
       <c r="T3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AA3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -633,16 +680,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
         <v>0</v>
       </c>
-      <c r="T4">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
+      <c r="Y4">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -703,15 +754,34 @@
         <v>7.2</v>
       </c>
       <c r="T5">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>23.349999999999998</v>
-      </c>
-      <c r="U5" s="7">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>30.349999999999998</v>
+      </c>
+      <c r="AA5" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.77833333333333321</v>
+        <v>0.72261904761904761</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -772,15 +842,34 @@
         <v>7</v>
       </c>
       <c r="T6">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>21.15</v>
-      </c>
-      <c r="U6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>25.15</v>
+      </c>
+      <c r="AA6" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.70499999999999996</v>
+        <v>0.59880952380952379</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -841,15 +930,34 @@
         <v>8.99</v>
       </c>
       <c r="T7">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>25.340000000000003</v>
-      </c>
-      <c r="U7" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>1.25</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>12</v>
+      </c>
+      <c r="Z7">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>37.340000000000003</v>
+      </c>
+      <c r="AA7" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.84466666666666679</v>
+        <v>0.88904761904761909</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -910,15 +1018,34 @@
         <v>5</v>
       </c>
       <c r="T8">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>18.649999999999999</v>
-      </c>
-      <c r="U8" s="7">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>1.99</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>9.99</v>
+      </c>
+      <c r="Z8">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>28.64</v>
+      </c>
+      <c r="AA8" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.62166666666666659</v>
+        <v>0.6819047619047619</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -979,15 +1106,34 @@
         <v>10.5</v>
       </c>
       <c r="T9">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>27.5</v>
-      </c>
-      <c r="U9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2.5</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>9.5</v>
+      </c>
+      <c r="Z9">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>37</v>
+      </c>
+      <c r="AA9" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.91666666666666663</v>
+        <v>0.88095238095238093</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1048,15 +1194,34 @@
         <v>8.5</v>
       </c>
       <c r="T10">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>25.25</v>
-      </c>
-      <c r="U10" s="7">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>33.25</v>
+      </c>
+      <c r="AA10" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.84166666666666667</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1117,15 +1282,34 @@
         <v>10</v>
       </c>
       <c r="T11">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>26.5</v>
-      </c>
-      <c r="U11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>2.5</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>33.5</v>
+      </c>
+      <c r="AA11" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.8833333333333333</v>
+        <v>0.79761904761904767</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1186,15 +1370,34 @@
         <v>7</v>
       </c>
       <c r="T12">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>20.95</v>
-      </c>
-      <c r="U12" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Z12">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>29.75</v>
+      </c>
+      <c r="AA12" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.69833333333333336</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1255,15 +1458,34 @@
         <v>5</v>
       </c>
       <c r="T13">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="U13" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>11.8</v>
+      </c>
+      <c r="Z13">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AA13" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.67999999999999994</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1324,15 +1546,34 @@
         <v>10</v>
       </c>
       <c r="T14">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>25.049999999999997</v>
-      </c>
-      <c r="U14" s="7">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8.5</v>
+      </c>
+      <c r="Z14">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="AA14" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.83499999999999985</v>
+        <v>0.79880952380952375</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1393,15 +1634,34 @@
         <v>9.5</v>
       </c>
       <c r="T15">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>26.93</v>
-      </c>
-      <c r="U15" s="7">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>37.93</v>
+      </c>
+      <c r="AA15" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.89766666666666661</v>
+        <v>0.90309523809523806</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1462,15 +1722,34 @@
         <v>7</v>
       </c>
       <c r="T16">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>21.8</v>
-      </c>
-      <c r="U16" s="7">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>2.8</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z16">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>31.6</v>
+      </c>
+      <c r="AA16" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.72666666666666668</v>
+        <v>0.75238095238095237</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1531,15 +1810,34 @@
         <v>3.5</v>
       </c>
       <c r="T17">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>12.4</v>
-      </c>
-      <c r="U17" s="7">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8</v>
+      </c>
+      <c r="Z17">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AA17" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.41333333333333333</v>
+        <v>0.48571428571428565</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1600,15 +1898,34 @@
         <v>10</v>
       </c>
       <c r="T18">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>24.45</v>
-      </c>
-      <c r="U18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U18">
+        <v>2.25</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8.25</v>
+      </c>
+      <c r="Z18">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA18" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.81499999999999995</v>
+        <v>0.77857142857142869</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1626,16 +1943,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
         <v>0</v>
       </c>
-      <c r="T19">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
+      <c r="Y19">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1696,15 +2017,34 @@
         <v>7</v>
       </c>
       <c r="T20">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="U20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>6.5</v>
+      </c>
+      <c r="Z20">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>23.9</v>
+      </c>
+      <c r="AA20" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.57999999999999996</v>
+        <v>0.56904761904761902</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1756,15 +2096,34 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>11.5</v>
-      </c>
-      <c r="U21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U21">
+        <v>0.75</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>6.25</v>
+      </c>
+      <c r="Z21">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>17.75</v>
+      </c>
+      <c r="AA21" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.38333333333333336</v>
+        <v>0.42261904761904762</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1825,15 +2184,34 @@
         <v>6.5</v>
       </c>
       <c r="T22">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>20.8</v>
-      </c>
-      <c r="U22" s="7">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>4.5</v>
+      </c>
+      <c r="Z22">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>25.3</v>
+      </c>
+      <c r="AA22" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.69333333333333336</v>
+        <v>0.60238095238095235</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1893,16 +2271,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
         <v>7.74</v>
       </c>
-      <c r="T23">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
+      <c r="Y23">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
         <v>21.29</v>
       </c>
-      <c r="U23" s="7">
+      <c r="AA23" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.70966666666666667</v>
+        <v>0.50690476190476186</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1963,15 +2345,34 @@
         <v>8</v>
       </c>
       <c r="T24">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>25.65</v>
-      </c>
-      <c r="U24" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1.5</v>
+      </c>
+      <c r="Y24">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8.75</v>
+      </c>
+      <c r="Z24">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>34.4</v>
+      </c>
+      <c r="AA24" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.85499999999999998</v>
+        <v>0.81904761904761902</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2032,15 +2433,34 @@
         <v>4</v>
       </c>
       <c r="T25">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U25" s="7">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>1.5</v>
+      </c>
+      <c r="Y25">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>9</v>
+      </c>
+      <c r="Z25">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>25.4</v>
+      </c>
+      <c r="AA25" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.54666666666666663</v>
+        <v>0.60476190476190472</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2101,15 +2521,34 @@
         <v>5.5</v>
       </c>
       <c r="T26">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>20.45</v>
-      </c>
-      <c r="U26" s="7">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8.5</v>
+      </c>
+      <c r="Z26">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>28.95</v>
+      </c>
+      <c r="AA26" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.68166666666666664</v>
+        <v>0.68928571428571428</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2170,15 +2609,34 @@
         <v>10</v>
       </c>
       <c r="T27">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>30</v>
-      </c>
-      <c r="U27" s="7">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>10</v>
+      </c>
+      <c r="Z27">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>40</v>
+      </c>
+      <c r="AA27" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>1</v>
+        <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2239,15 +2697,34 @@
         <v>10</v>
       </c>
       <c r="T28">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>22.55</v>
-      </c>
-      <c r="U28" s="7">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>2.5</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>10.25</v>
+      </c>
+      <c r="Z28">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA28" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.75166666666666671</v>
+        <v>0.78095238095238084</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2308,15 +2785,34 @@
         <v>10</v>
       </c>
       <c r="T29">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>24.75</v>
-      </c>
-      <c r="U29" s="7">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>27.75</v>
+      </c>
+      <c r="AA29" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.82499999999999996</v>
+        <v>0.6607142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2377,12 +2873,31 @@
         <v>3.25</v>
       </c>
       <c r="T30">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]</f>
-        <v>13.350000000000001</v>
-      </c>
-      <c r="U30" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
+        <v>8.5</v>
+      </c>
+      <c r="Z30">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+        <v>21.85</v>
+      </c>
+      <c r="AA30" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.44500000000000006</v>
+        <v>0.52023809523809528</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.3">
@@ -2392,7 +2907,7 @@
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4989E0-08F8-4C39-9F2A-13791D7254D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F3198-5DB1-4097-950D-94C98C84EEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>L4</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Lista 4.5</t>
+  </si>
+  <si>
+    <t>Ocena</t>
+  </si>
+  <si>
+    <t>Lista 5</t>
   </si>
 </sst>
 </file>
@@ -217,12 +223,15 @@
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -247,12 +256,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:AA30" totalsRowShown="0">
-  <autoFilter ref="A3:AA30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D18B85-BF6D-45C0-9854-BD47853C6798}" name="Tabela1" displayName="Tabela1" ref="A3:AC30" totalsRowShown="0">
+  <autoFilter ref="A3:AC30" xr:uid="{52102E91-7D0A-4A54-BC4D-B7DD71F09F43}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AB30">
     <sortCondition ref="C3:C30"/>
   </sortState>
-  <tableColumns count="27">
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{B1A7F767-CF2C-4BD9-9146-5FA2959B05B3}" name="Grupa"/>
     <tableColumn id="2" xr3:uid="{2B945A6E-C9F4-4DDE-8C06-4E2314F3DB82}" name="LP"/>
     <tableColumn id="3" xr3:uid="{9BFAEF19-D83D-46A1-80E0-7E9789C00ADB}" name="Indeks"/>
@@ -266,14 +275,14 @@
     <tableColumn id="13" xr3:uid="{99FA7B8F-3265-4053-A864-7D708ACF70F3}" name="Lista 1.8"/>
     <tableColumn id="14" xr3:uid="{AF6A9FC9-C6EF-4E93-A8CD-D1AF9B89F86B}" name="Lista 1.9"/>
     <tableColumn id="15" xr3:uid="{B85D81D9-5EC1-4B7D-A6E1-1AB4B3193040}" name="Lista 1.10"/>
-    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="4">
+    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="5">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4D391143-F283-44F2-99D9-DFF7DD44893D}" name="Lista 2"/>
     <tableColumn id="22" xr3:uid="{158E2FA1-570C-49A6-BB8A-B27E72F6BB56}" name="Lista 3.1"/>
     <tableColumn id="21" xr3:uid="{719A07F4-8B54-49B2-93C1-18160B943267}" name="Lista 3.2"/>
     <tableColumn id="20" xr3:uid="{6CA19177-4EEC-42FA-9312-A6880C0781C0}" name="Lista 3.3"/>
-    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="4">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" xr3:uid="{26EDB5B8-FE56-41CD-A72B-D4C3931CDE99}" name="Lista 4.1"/>
@@ -281,14 +290,18 @@
     <tableColumn id="24" xr3:uid="{75674EDA-47DA-46A1-B59D-23246B8602A0}" name="Lista 4.3"/>
     <tableColumn id="27" xr3:uid="{3384B4E4-AE8B-4B4D-AB8F-3177F0A382B4}" name="Lista 4.4"/>
     <tableColumn id="23" xr3:uid="{3A8429E9-E920-48A0-91ED-43BA5DA358CE}" name="Lista 4.5"/>
-    <tableColumn id="18" xr3:uid="{6ADB2887-0ACD-4AE5-B910-B268FC329AA1}" name="Lista 4" dataDxfId="2">
+    <tableColumn id="18" xr3:uid="{6ADB2887-0ACD-4AE5-B910-B268FC329AA1}" name="Lista 4" dataDxfId="3">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="1">
-      <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</calculatedColumnFormula>
+    <tableColumn id="29" xr3:uid="{78F3B9BA-4441-4B2B-AE92-50689CF2052C}" name="Lista 5"/>
+    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="0">
+    <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="2">
       <calculatedColumnFormula>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{8DC77032-E0B7-45EF-97F7-CBE667AF004C}" name="Ocena" dataDxfId="1">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -568,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AA35"/>
+  <dimension ref="A3:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +592,7 @@
     <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -656,13 +669,19 @@
         <v>24</v>
       </c>
       <c r="Z3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>19</v>
       </c>
+      <c r="AC3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -684,16 +703,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>0</v>
       </c>
-      <c r="Z4">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
+      <c r="AA4">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
         <v>0</v>
       </c>
+      <c r="AC4">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -772,16 +795,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>7</v>
       </c>
-      <c r="Z5">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA5">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>30.349999999999998</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AB5" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.72261904761904761</v>
+        <v>0.58365384615384608</v>
+      </c>
+      <c r="AC5">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -860,16 +887,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>4</v>
       </c>
-      <c r="Z6">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA6">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>25.15</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AB6" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.59880952380952379</v>
+        <v>0.4836538461538461</v>
+      </c>
+      <c r="AC6">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -948,16 +979,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>12</v>
       </c>
-      <c r="Z7">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA7">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>37.340000000000003</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AB7" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.88904761904761909</v>
+        <v>0.71807692307692317</v>
+      </c>
+      <c r="AC7">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1036,16 +1071,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>9.99</v>
       </c>
-      <c r="Z8">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA8">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>28.64</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AB8" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.6819047619047619</v>
+        <v>0.55076923076923079</v>
+      </c>
+      <c r="AC8">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1124,16 +1163,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>9.5</v>
       </c>
-      <c r="Z9">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA9">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>37</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AB9" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.88095238095238093</v>
+        <v>0.71153846153846156</v>
+      </c>
+      <c r="AC9">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1212,16 +1255,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8</v>
       </c>
-      <c r="Z10">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA10">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>33.25</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AB10" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.79166666666666663</v>
+        <v>0.63942307692307687</v>
+      </c>
+      <c r="AC10">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1300,16 +1347,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>7</v>
       </c>
-      <c r="Z11">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA11">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>33.5</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AB11" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.79761904761904767</v>
+        <v>0.64423076923076927</v>
+      </c>
+      <c r="AC11">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1388,16 +1439,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="Z12">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA12">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>29.75</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AB12" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.70833333333333337</v>
+        <v>0.57211538461538458</v>
+      </c>
+      <c r="AC12">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1476,16 +1531,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>11.8</v>
       </c>
-      <c r="Z13">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA13">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AB13" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.76666666666666672</v>
+        <v>0.61923076923076925</v>
+      </c>
+      <c r="AC13">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1564,16 +1623,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.5</v>
       </c>
-      <c r="Z14">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA14">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>33.549999999999997</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AB14" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.79880952380952375</v>
+        <v>0.64519230769230762</v>
+      </c>
+      <c r="AC14">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1652,16 +1715,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>11</v>
       </c>
-      <c r="Z15">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA15">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>37.93</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AB15" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.90309523809523806</v>
+        <v>0.72942307692307695</v>
+      </c>
+      <c r="AC15">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1740,16 +1807,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="Z16">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA16">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>31.6</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AB16" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.75238095238095237</v>
+        <v>0.60769230769230775</v>
+      </c>
+      <c r="AC16">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1828,16 +1899,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8</v>
       </c>
-      <c r="Z17">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA17">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AB17" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.48571428571428565</v>
+        <v>0.3923076923076923</v>
+      </c>
+      <c r="AC17">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1916,16 +1991,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.25</v>
       </c>
-      <c r="Z18">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA18">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AB18" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.77857142857142869</v>
+        <v>0.62884615384615394</v>
+      </c>
+      <c r="AC18">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1947,16 +2026,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>0</v>
       </c>
-      <c r="Z19">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
+      <c r="AA19">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
         <v>0</v>
       </c>
+      <c r="AC19">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2035,16 +2118,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>6.5</v>
       </c>
-      <c r="Z20">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA20">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>23.9</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AB20" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.56904761904761902</v>
+        <v>0.45961538461538459</v>
+      </c>
+      <c r="AC20">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2114,16 +2201,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>6.25</v>
       </c>
-      <c r="Z21">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA21">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>17.75</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AB21" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.42261904761904762</v>
+        <v>0.34134615384615385</v>
+      </c>
+      <c r="AC21">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2202,16 +2293,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>4.5</v>
       </c>
-      <c r="Z22">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA22">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>25.3</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AB22" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.60238095238095235</v>
+        <v>0.48653846153846153</v>
+      </c>
+      <c r="AC22">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2271,20 +2366,39 @@
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
         <v>7.74</v>
       </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
       <c r="Y23">
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
-        <v>21.29</v>
-      </c>
-      <c r="AA23" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AA23">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
+        <v>25.79</v>
+      </c>
+      <c r="AB23" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.50690476190476186</v>
+        <v>0.49596153846153845</v>
+      </c>
+      <c r="AC23">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2363,16 +2477,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.75</v>
       </c>
-      <c r="Z24">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA24">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>34.4</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AB24" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.81904761904761902</v>
+        <v>0.66153846153846152</v>
+      </c>
+      <c r="AC24">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2451,16 +2569,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>9</v>
       </c>
-      <c r="Z25">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA25">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>25.4</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AB25" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.60476190476190472</v>
+        <v>0.48846153846153845</v>
+      </c>
+      <c r="AC25">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2539,16 +2661,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.5</v>
       </c>
-      <c r="Z26">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA26">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>28.95</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AB26" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.68928571428571428</v>
+        <v>0.55673076923076925</v>
+      </c>
+      <c r="AC26">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2627,16 +2753,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>10</v>
       </c>
-      <c r="Z27">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA27">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>40</v>
       </c>
-      <c r="AA27" s="7">
+      <c r="AB27" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.95238095238095233</v>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AC27">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2715,16 +2845,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>10.25</v>
       </c>
-      <c r="Z28">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA28">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AB28" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.78095238095238084</v>
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="AC28">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2803,16 +2937,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>3</v>
       </c>
-      <c r="Z29">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA29">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>27.75</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AB29" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.6607142857142857</v>
+        <v>0.53365384615384615</v>
+      </c>
+      <c r="AC29">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2891,13 +3029,17 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.5</v>
       </c>
-      <c r="Z30">
-        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]</f>
+      <c r="AA30">
+        <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
         <v>21.85</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AB30" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.52023809523809528</v>
+        <v>0.4201923076923077</v>
+      </c>
+      <c r="AC30">
+        <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.3">
@@ -2907,7 +3049,7 @@
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F3198-5DB1-4097-950D-94C98C84EEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA22EBBF-DAF2-4CCA-B381-3BD9952C0C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>L4</t>
   </si>
@@ -128,6 +128,9 @@
   <si>
     <t>Lista 5</t>
   </si>
+  <si>
+    <t>Liczba</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +226,7 @@
     <cellStyle name="60% — akcent 1" xfId="1" builtinId="32"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -232,6 +235,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -275,14 +281,14 @@
     <tableColumn id="13" xr3:uid="{99FA7B8F-3265-4053-A864-7D708ACF70F3}" name="Lista 1.8"/>
     <tableColumn id="14" xr3:uid="{AF6A9FC9-C6EF-4E93-A8CD-D1AF9B89F86B}" name="Lista 1.9"/>
     <tableColumn id="15" xr3:uid="{B85D81D9-5EC1-4B7D-A6E1-1AB4B3193040}" name="Lista 1.10"/>
-    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{29BF769A-CE82-41B2-82A0-CBE84CB01DD2}" name="Lista 1" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 1.1]:[Lista 1.10]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4D391143-F283-44F2-99D9-DFF7DD44893D}" name="Lista 2"/>
     <tableColumn id="22" xr3:uid="{158E2FA1-570C-49A6-BB8A-B27E72F6BB56}" name="Lista 3.1"/>
     <tableColumn id="21" xr3:uid="{719A07F4-8B54-49B2-93C1-18160B943267}" name="Lista 3.2"/>
     <tableColumn id="20" xr3:uid="{6CA19177-4EEC-42FA-9312-A6880C0781C0}" name="Lista 3.3"/>
-    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{E0ACFB10-CC5C-4EFB-A125-942EA7D7C9B5}" name="Lista 3" dataDxfId="5">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" xr3:uid="{26EDB5B8-FE56-41CD-A72B-D4C3931CDE99}" name="Lista 4.1"/>
@@ -290,11 +296,11 @@
     <tableColumn id="24" xr3:uid="{75674EDA-47DA-46A1-B59D-23246B8602A0}" name="Lista 4.3"/>
     <tableColumn id="27" xr3:uid="{3384B4E4-AE8B-4B4D-AB8F-3177F0A382B4}" name="Lista 4.4"/>
     <tableColumn id="23" xr3:uid="{3A8429E9-E920-48A0-91ED-43BA5DA358CE}" name="Lista 4.5"/>
-    <tableColumn id="18" xr3:uid="{6ADB2887-0ACD-4AE5-B910-B268FC329AA1}" name="Lista 4" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{6ADB2887-0ACD-4AE5-B910-B268FC329AA1}" name="Lista 4" dataDxfId="4">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" xr3:uid="{78F3B9BA-4441-4B2B-AE92-50689CF2052C}" name="Lista 5"/>
-    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{D4D6EEC2-C473-4290-A3F0-01C555E302FB}" name="SUMA" dataDxfId="3">
       <calculatedColumnFormula>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{48428C63-D30F-4815-A899-9BF7F8EC4CBF}" name="Procent" dataDxfId="2">
@@ -315,6 +321,19 @@
     <tableColumn id="1" xr3:uid="{9AD703C4-499F-467F-96D8-195D0B785B29}" name="Pkt do zdobycia"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46E3499-0B13-4724-8F83-48B03D959556}" name="Tabela2" displayName="Tabela2" ref="AA34:AB40" totalsRowShown="0">
+  <autoFilter ref="AA34:AB40" xr:uid="{CE49EDC7-1A8B-498B-BFE2-778D7E73E05A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5935EF24-C1C1-4ECA-A205-5C38B71A5B8D}" name="Ocena"/>
+    <tableColumn id="2" xr3:uid="{C6EECAD7-0653-4320-8BC6-B2759AE5DB20}" name="Liczba" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(Tabela1[Ocena],AA35)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -581,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AC35"/>
+  <dimension ref="A3:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,17 +814,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>7</v>
       </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
       <c r="AA5">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>30.349999999999998</v>
+        <v>32.349999999999994</v>
       </c>
       <c r="AB5" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.58365384615384608</v>
+        <v>0.62211538461538451</v>
       </c>
       <c r="AC5">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
@@ -887,17 +909,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>4</v>
       </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
       <c r="AA6">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>25.15</v>
+        <v>29.15</v>
       </c>
       <c r="AB6" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.4836538461538461</v>
+        <v>0.56057692307692308</v>
       </c>
       <c r="AC6">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
@@ -979,17 +1004,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>12</v>
       </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
       <c r="AA7">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>37.340000000000003</v>
+        <v>47.34</v>
       </c>
       <c r="AB7" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.71807692307692317</v>
+        <v>0.91038461538461546</v>
       </c>
       <c r="AC7">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -1163,13 +1191,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>9.5</v>
       </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
       <c r="AA9">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.71153846153846156</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="AC9">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
@@ -1255,17 +1286,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8</v>
       </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
       <c r="AA10">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>33.25</v>
+        <v>38.25</v>
       </c>
       <c r="AB10" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.63942307692307687</v>
+        <v>0.73557692307692313</v>
       </c>
       <c r="AC10">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -1347,13 +1381,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>7</v>
       </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
       <c r="AA11">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="AB11" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.64423076923076927</v>
+        <v>0.68269230769230771</v>
       </c>
       <c r="AC11">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
@@ -1439,17 +1476,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.8000000000000007</v>
       </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
       <c r="AA12">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>29.75</v>
+        <v>34.75</v>
       </c>
       <c r="AB12" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.57211538461538458</v>
+        <v>0.66826923076923073</v>
       </c>
       <c r="AC12">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -1531,13 +1571,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>11.8</v>
       </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
       <c r="AA13">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>32.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="AB13" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.61923076923076925</v>
+        <v>0.69615384615384623</v>
       </c>
       <c r="AC13">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
@@ -1623,17 +1666,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.5</v>
       </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
       <c r="AA14">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>33.549999999999997</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="AB14" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.64519230769230762</v>
+        <v>0.76057692307692304</v>
       </c>
       <c r="AC14">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -1715,17 +1761,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>11</v>
       </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
       <c r="AA15">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>37.93</v>
+        <v>44.93</v>
       </c>
       <c r="AB15" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.72942307692307695</v>
+        <v>0.86403846153846153</v>
       </c>
       <c r="AC15">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -1807,17 +1856,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>9.8000000000000007</v>
       </c>
+      <c r="Z16">
+        <v>7</v>
+      </c>
       <c r="AA16">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>31.6</v>
+        <v>38.6</v>
       </c>
       <c r="AB16" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.60769230769230775</v>
+        <v>0.74230769230769234</v>
       </c>
       <c r="AC16">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
@@ -1899,17 +1951,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8</v>
       </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
       <c r="AA17">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>20.399999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="AB17" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.3923076923076923</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="AC17">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
@@ -1991,17 +2046,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.25</v>
       </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
       <c r="AA18">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>32.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="AB18" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.62884615384615394</v>
+        <v>0.72500000000000009</v>
       </c>
       <c r="AC18">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -2118,17 +2176,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>6.5</v>
       </c>
+      <c r="Z20">
+        <v>6</v>
+      </c>
       <c r="AA20">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>23.9</v>
+        <v>29.9</v>
       </c>
       <c r="AB20" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.45961538461538459</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="AC20">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
@@ -2178,9 +2239,18 @@
       <c r="O21">
         <v>8</v>
       </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>1.5</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
       <c r="S21">
         <f>SUM(Tabela1[[#This Row],[Lista 3.1]:[Lista 3.3]])</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T21">
         <v>1.5</v>
@@ -2201,17 +2271,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>6.25</v>
       </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
       <c r="AA21">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>17.75</v>
+        <v>28.25</v>
       </c>
       <c r="AB21" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.34134615384615385</v>
+        <v>0.54326923076923073</v>
       </c>
       <c r="AC21">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
@@ -2293,17 +2366,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>4.5</v>
       </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
       <c r="AA22">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>25.3</v>
+        <v>28.3</v>
       </c>
       <c r="AB22" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.48653846153846153</v>
+        <v>0.5442307692307693</v>
       </c>
       <c r="AC22">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
@@ -2385,17 +2461,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>4.5</v>
       </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
       <c r="AA23">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>25.79</v>
+        <v>30.79</v>
       </c>
       <c r="AB23" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.49596153846153845</v>
+        <v>0.5921153846153846</v>
       </c>
       <c r="AC23">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -2569,17 +2648,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>9</v>
       </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
       <c r="AA25">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>25.4</v>
+        <v>28.4</v>
       </c>
       <c r="AB25" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.48846153846153845</v>
+        <v>0.5461538461538461</v>
       </c>
       <c r="AC25">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
@@ -2661,17 +2743,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.5</v>
       </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
       <c r="AA26">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>28.95</v>
+        <v>31.95</v>
       </c>
       <c r="AB26" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.55673076923076925</v>
+        <v>0.61442307692307696</v>
       </c>
       <c r="AC26">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
@@ -2753,17 +2838,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>10</v>
       </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
       <c r="AA27">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB27" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.76923076923076927</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="AC27">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -2845,17 +2933,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>10.25</v>
       </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
       <c r="AA28">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>32.799999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="AB28" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.63076923076923075</v>
+        <v>0.74615384615384606</v>
       </c>
       <c r="AC28">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -2937,13 +3028,16 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>3</v>
       </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
       <c r="AA29">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>27.75</v>
+        <v>29.75</v>
       </c>
       <c r="AB29" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.53365384615384615</v>
+        <v>0.57211538461538458</v>
       </c>
       <c r="AC29">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
@@ -3042,23 +3136,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:28" x14ac:dyDescent="0.3">
       <c r="O34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="AA34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="15:28" x14ac:dyDescent="0.3">
       <c r="O35">
         <v>52</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <f>COUNTIF(Tabela1[Ocena],AA35)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <f>COUNTIF(Tabela1[Ocena],AA36)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <v>3.5</v>
+      </c>
+      <c r="AB37">
+        <f>COUNTIF(Tabela1[Ocena],AA37)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <v>4</v>
+      </c>
+      <c r="AB38">
+        <f>COUNTIF(Tabela1[Ocena],AA38)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <v>4.5</v>
+      </c>
+      <c r="AB39">
+        <f>COUNTIF(Tabela1[Ocena],AA39)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AB40">
+        <f>COUNTIF(Tabela1[Ocena],AA40)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Laboratorium/Wyniki.xlsx
+++ b/Laboratorium/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\BazyDanychI4\Laboratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA22EBBF-DAF2-4CCA-B381-3BD9952C0C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB5CF4D-3467-499D-A177-7C92139911B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,17 +2556,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.75</v>
       </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
       <c r="AA24">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>34.4</v>
+        <v>39.4</v>
       </c>
       <c r="AB24" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.66153846153846152</v>
+        <v>0.75769230769230766</v>
       </c>
       <c r="AC24">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
@@ -3123,17 +3126,20 @@
         <f>SUM(Tabela1[[#This Row],[Lista 4.1]:[Lista 4.5]])</f>
         <v>8.5</v>
       </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
       <c r="AA30">
         <f>Tabela1[Lista 1]+Tabela1[Lista 2]+Tabela1[Lista 3]+Tabela1[Lista 4]+Tabela1[Lista 5]</f>
-        <v>21.85</v>
+        <v>26.85</v>
       </c>
       <c r="AB30" s="7">
         <f>Tabela1[[#This Row],[SUMA]]/Tabela3[Pkt do zdobycia]</f>
-        <v>0.4201923076923077</v>
+        <v>0.5163461538461539</v>
       </c>
       <c r="AC30">
         <f>IF(Tabela1[[#This Row],[Procent]]&lt;50%, 2, IF(Tabela1[[#This Row],[Procent]] &lt; 60%, 3, IF(Tabela1[[#This Row],[Procent]] &lt; 70%, 3.5, IF(Tabela1[[#This Row],[Procent]] &lt; 80%, 4, IF(Tabela1[[#This Row],[Procent]] &lt; 90%, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="15:28" x14ac:dyDescent="0.3">
@@ -3156,7 +3162,7 @@
       </c>
       <c r="AB35">
         <f>COUNTIF(Tabela1[Ocena],AA35)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="15:28" x14ac:dyDescent="0.3">
@@ -3165,7 +3171,7 @@
       </c>
       <c r="AB36">
         <f>COUNTIF(Tabela1[Ocena],AA36)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="15:28" x14ac:dyDescent="0.3">
@@ -3174,7 +3180,7 @@
       </c>
       <c r="AB37">
         <f>COUNTIF(Tabela1[Ocena],AA37)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="15:28" x14ac:dyDescent="0.3">
@@ -3183,7 +3189,7 @@
       </c>
       <c r="AB38">
         <f>COUNTIF(Tabela1[Ocena],AA38)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="15:28" x14ac:dyDescent="0.3">
